--- a/BayesianResults/PriorsTable3.xlsx
+++ b/BayesianResults/PriorsTable3.xlsx
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>0.05</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>0.05</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>0.05</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>0.05</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>0.05</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>0.05</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>0.05</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>0.05</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>0.05</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
         <v>0.05</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>0.05</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>0.05</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>0.05</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
         <v>0.05</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>0.05</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>0.05</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>0.05</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>0.05</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>0.05</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>0.05</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>0.05</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1083,7 +1083,7 @@
         <v>0.05</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>0.05</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
         <v>0.05</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>0.05</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
         <v>0.05</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
         <v>0.05</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
         <v>0.05</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>0.05</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
         <v>0.05</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>0.05</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
         <v>0.05</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>0.05</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>0.05</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,7 +1343,7 @@
         <v>0.05</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
         <v>0.05</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>0.05</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>0.05</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>0.05</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
         <v>0.05</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
         <v>0.05</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>0.05</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,10 +1497,10 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1514,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,10 +1531,10 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1548,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,10 +1565,10 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1582,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1616,10 +1616,10 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1633,10 +1633,10 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1650,10 +1650,10 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,10 +1667,10 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,10 +1684,10 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,10 +1701,10 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1718,10 +1718,10 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,10 +1735,10 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1752,10 +1752,10 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,10 +1769,10 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,10 +1786,10 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1803,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,10 +1854,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/BayesianResults/PriorsTable3.xlsx
+++ b/BayesianResults/PriorsTable3.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F22">
         <v>0</v>

--- a/BayesianResults/PriorsTable3.xlsx
+++ b/BayesianResults/PriorsTable3.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\SALES\Fundos de Mercado\Pedro Mattos\Notebooks\Nowcasting\BayesianResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PedroBraz2/Documents/Repos/Nowcasting/BayesianResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="9135"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="150001" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -248,11 +251,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,13 +294,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -596,20 +619,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +649,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -637,16 +660,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -657,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -677,16 +700,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -697,16 +720,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -717,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -737,16 +760,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -757,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -777,16 +800,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -797,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -817,16 +840,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -837,16 +860,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -857,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -877,16 +900,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -897,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -917,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -937,16 +960,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -957,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -977,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -997,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1017,16 +1040,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1037,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1057,16 +1080,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1077,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1097,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1117,16 +1140,16 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1137,16 +1160,16 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1157,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1177,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1197,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1217,16 +1240,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1237,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1257,16 +1280,16 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1277,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1297,16 +1320,16 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1317,16 +1340,16 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1337,16 +1360,16 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1357,16 +1380,16 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1377,16 +1400,16 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1397,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1417,16 +1440,16 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1437,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1457,16 +1480,16 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1477,16 +1500,16 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1503,7 +1526,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1520,7 +1543,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1537,7 +1560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1554,7 +1577,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1571,7 +1594,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1588,7 +1611,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1605,7 +1628,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1622,7 +1645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1639,7 +1662,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1656,7 +1679,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1673,7 +1696,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1690,7 +1713,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1707,7 +1730,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1724,7 +1747,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1741,7 +1764,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1758,7 +1781,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1775,7 +1798,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1792,7 +1815,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1809,7 +1832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1826,7 +1849,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1843,7 +1866,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1860,7 +1883,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1879,5 +1902,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>